--- a/biology/Zoologie/Callisaurus_draconoides/Callisaurus_draconoides.xlsx
+++ b/biology/Zoologie/Callisaurus_draconoides/Callisaurus_draconoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lézard à queue de zèbre, Callisaurus draconoides, unique représentant du genre Callisaurus, est une espèce de sauriens de la famille des Phrynosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lézard à queue de zèbre, Callisaurus draconoides, unique représentant du genre Callisaurus, est une espèce de sauriens de la famille des Phrynosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le sud-ouest de la Californie, au Nevada, dans l'Arizona et au Nouveau-Mexique ;
 au Mexique en Basse-Californie, en Basse-Californie du Sud, dans le Sonora et dans le Sinaloa.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard qui atteint 6 à 10 cm vit dans des zones arides à désertiques. Il est de couleur sable à brun, avec des bandes noires sur la queue et des points foncés sur le dos. Les mâles présentent de plus deux taches noires sur les côtés. Il a un corps assez fin, avec des pattes bien découpées, les postérieures étant bien développées. Les doigts sont fins et longs, adaptés à la marche sur le sable.
 Ce sont des animaux diurnes qui supportent de fortes chaleurs. La nuit ils s'enfouissent dans le sable. Ils sont carnivores et chassent un grand nombre d'insectes et autres arthropodes ainsi que de petits reptiles, et ils peuvent à l'occasion consommer des végétaux.
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se reproduit durant l'été. Les femelles pondent de 2 à 8 œufs enterrés, qui incubent de juillet à novembre.
 </t>
@@ -607,9 +625,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 février 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 février 2013) :
 Callisaurus draconoides bogerti Martin Del Campo, 1943
 Callisaurus draconoides brevipes Bogert &amp; Dorson, 1942
 Callisaurus draconoides carmenensis Dickerson, 1919
@@ -646,7 +666,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Blainville, 1835 : Description de quelques espèces de reptiles de la Californie précédée de l’analyse d’un système général d’herpétologie et d’amphibiologie. Nouvelles Annales du Muséum d'Histoire Naturelle, vol. 4, p. 233-296 (texte intégral).
 Bogert &amp; Dorson, 1942 : A new lizard of the genus Callisaurus from Sonora. Copeia, vol. 1942, no 3, p. 173-175.
